--- a/data/trans_camb/P24_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P24_2_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,13</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>11,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>4,96</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9,04</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,95</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5,51</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 3,46</t>
+          <t>-1,09; 8,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 7,79</t>
+          <t>1,25; 11,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 1,92</t>
+          <t>-2,29; 6,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 9,17</t>
+          <t>0,53; 11,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 13,02</t>
+          <t>-0,27; 12,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 11,61</t>
+          <t>5,36; 19,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 5,7</t>
+          <t>0,21; 13,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 9,69</t>
+          <t>0,03; 14,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 5,89</t>
+          <t>1,24; 9,36</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 13,77</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,04; 7,94</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 10,16</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>126,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>74,17%</t>
+          <t>208,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-28,62%</t>
+          <t>47,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>50,31%</t>
+          <t>166,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>88,68%</t>
+          <t>63,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>71,92%</t>
+          <t>123,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>34,73%</t>
+          <t>70,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>83,93%</t>
+          <t>67,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>38,29%</t>
+          <t>76,18%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>138,78%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>60,6%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>84,66%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-66,74; 138,89</t>
+          <t>-37,08; 655,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,34; 267,03</t>
+          <t>8,14; 821,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-82,61; 81,56</t>
+          <t>-58,51; 496,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 130,31</t>
+          <t>-6,9; 970,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,33; 185,15</t>
+          <t>-4,32; 190,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,5; 162,18</t>
+          <t>39,4; 291,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 100,19</t>
+          <t>-0,15; 199,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,88; 164,28</t>
+          <t>-6,55; 204,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 104,76</t>
+          <t>10,03; 185,74</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>58,66; 292,13</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 152,44</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12,3; 209,45</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>11,89</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>2,75</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,29</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9,22</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 2,01</t>
+          <t>-7,31; 6,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 9,21</t>
+          <t>-4,15; 10,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 3,27</t>
+          <t>-9,4; 3,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 8,21</t>
+          <t>-1,39; 15,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 8,31</t>
+          <t>-2,27; 13,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 6,25</t>
+          <t>-2,22; 12,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 3,73</t>
+          <t>-5,15; 8,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 6,8</t>
+          <t>3,0; 26,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 2,77</t>
+          <t>-2,22; 8,27</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 9,26</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 4,3</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 17,98</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-29,39%</t>
+          <t>-2,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>40,02%</t>
+          <t>41,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-24,2%</t>
+          <t>-33,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>79,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>53,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>53,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>122,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-7,67%</t>
+          <t>30,63%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>47,88%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-6,11%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>102,76%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-65,28; 40,38</t>
+          <t>-61,42; 146,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 169,22</t>
+          <t>-37,35; 194,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,13; 61,95</t>
+          <t>-77,63; 74,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,36; 96,74</t>
+          <t>-19,73; 296,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 94,07</t>
+          <t>-22,5; 210,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 72,75</t>
+          <t>-20,24; 182,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,96; 46,54</t>
+          <t>-40,44; 133,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 85,93</t>
+          <t>13,7; 362,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-35,21; 33,77</t>
+          <t>-21,95; 122,85</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-10,81; 137,01</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-44,9; 64,14</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>22,18; 250,79</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,08</t>
+          <t>20,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>24,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,56</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,98</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>12,25</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>13,17</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,42</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18,31</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 44,74</t>
+          <t>-5,38; 60,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 11,07</t>
+          <t>-12,0; 13,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 13,92</t>
+          <t>-14,01; 11,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 13,36</t>
+          <t>-4,75; 67,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 10,9</t>
+          <t>-7,5; 19,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 19,37</t>
+          <t>-11,13; 14,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 25,66</t>
+          <t>-4,9; 23,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 7,88</t>
+          <t>-2,31; 29,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 12,23</t>
+          <t>-0,96; 41,22</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-6,75; 10,21</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; 13,43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 46,28</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>258,33%</t>
+          <t>345,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>52,59%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>36,74%</t>
+          <t>-32,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>60,58%</t>
+          <t>398,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>68,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>147,3%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>153,11%</t>
+          <t>112,24%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>152,88%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>94,39%</t>
+          <t>187,9%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>12,6%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>48,73%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>261,28%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1427,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-65,84; 532,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>-69,87; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-40,54; 717,52</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 918,94</t>
+          <t>-53,74; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,29; 277,79</t>
+          <t>-38,58; 1421,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,57; 401,08</t>
+          <t>-31,09; 1606,83</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-71,25; 355,96</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-57,37; 434,4</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>7,35; 1780,23</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>4,93</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,29</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 4,58</t>
+          <t>-0,56; 12,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 6,76</t>
+          <t>0,45; 9,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,41</t>
+          <t>-4,3; 2,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 6,97</t>
+          <t>2,44; 16,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,98</t>
+          <t>0,81; 11,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,02; 7,97</t>
+          <t>3,26; 12,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 4,6</t>
+          <t>0,02; 9,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,71</t>
+          <t>3,34; 15,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 3,95</t>
+          <t>1,45; 8,97</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3,03; 9,79</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 5,03</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4,67; 13,22</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>76,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>82,07%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-19,54%</t>
+          <t>-12,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>141,95%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>53,64%</t>
+          <t>59,71%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>45,84%</t>
+          <t>85,65%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>51,4%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>53,42%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>65,32%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>83,26%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>27,41%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>110,13%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,4; 90,3</t>
+          <t>-14,3; 266,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 141,76</t>
+          <t>1,59; 221,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,42; 33,22</t>
+          <t>-61,55; 72,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 86,57</t>
+          <t>28,88; 389,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,03; 112,23</t>
+          <t>7,37; 148,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,42; 96,76</t>
+          <t>26,59; 175,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 67,46</t>
+          <t>-1,53; 131,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,91; 100,41</t>
+          <t>28,42; 206,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 55,8</t>
+          <t>14,11; 132,02</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>33,34; 152,45</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-11,67; 77,81</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>51,47; 205,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
